--- a/AF-P05-G3/Anexos/Anexo 1 - Integridad de los datos y testigos.xlsx
+++ b/AF-P05-G3/Anexos/Anexo 1 - Integridad de los datos y testigos.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3kxhoDark\Desktop\CIBER\AFI\Unidad 4\Proyecto 4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02E0167-8F14-4174-B41F-0DDEFEE51CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="26">
   <si>
     <t>Verificación</t>
   </si>
@@ -66,29 +60,50 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>EDCDBCAC27263A45D6DFE27F6C8BAFF55952B2357A70031DE20DE057730CD359</t>
-  </si>
-  <si>
-    <t>Integridad de los datos y testigos: DESKTOP-01S7HH9-20220408-171552.dmp</t>
-  </si>
-  <si>
-    <t>Integridad de los datos y testigos: DESKTOP-01S7HH9-20220408-171552.dmp.zip</t>
-  </si>
-  <si>
-    <t>Integridad de los datos y testigos: DESKTOP-01S7HH9-20220408-171552.json</t>
-  </si>
-  <si>
-    <t>2246B2ABB178B3A508B5C8207D50E7E6F86D5C1F09487B50DAAA6387BEF639F0</t>
-  </si>
-  <si>
-    <t>CBCD0AC591B4FC425550EB1292AD8F1DDDC4B0146A6D0DF7B23F6D13FA84B049</t>
+    <t>Integridad de los datos y testigos: perfil_memoria.zip</t>
+  </si>
+  <si>
+    <t>18B30B973223B8AB233AA1581BCCD35BEF6C678B29E671B3FE3A7EE5EA24B076</t>
+  </si>
+  <si>
+    <t>18B30B973223B8AB233AA1581BCCD35BEF6C678B29E671B3FE3A7EE5EA24b076</t>
+  </si>
+  <si>
+    <t>Integridad de los datos y testigos: captura_ram.lime.zip</t>
+  </si>
+  <si>
+    <t>367AED52EF7E92C3B90B7A514054BDFEECDA605CDC12F708D785501083FB7F05</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>632D3D95260753029D7C9ADE15E0DCAB69B8FE7EB08D7001D9F923B22DDF003F</t>
+  </si>
+  <si>
+    <t>Integridad de los datos y testigos: captura_ram.lime</t>
+  </si>
+  <si>
+    <t>0F5D751208B08450E298B8D27F22451DD2AE158DFC1CB80B974F360E9A88FF05</t>
+  </si>
+  <si>
+    <t>Integridad de los datos y testigos: imagen_disco.dd.zip</t>
+  </si>
+  <si>
+    <t>B0189203FA682FD086ED3C52A3723AC46AB896A2FB8E4DAF49ED6228BC7D3B76</t>
+  </si>
+  <si>
+    <t>Integridad de los datos y testigos: imagen_disco.dd</t>
+  </si>
+  <si>
+    <t>9F2B2DACE6CFEBEC1B6F956FC231E199C00F39E05D50286B8F284043537D65D9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,24 +330,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -342,28 +339,46 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="20">
-    <cellStyle name="Accent" xfId="3" xr:uid="{6694B3A4-18F4-489C-AAF1-FA9B58CA743B}"/>
-    <cellStyle name="Accent 1" xfId="4" xr:uid="{7B3E15DF-FA7D-421D-BDC1-FAE6940D116C}"/>
-    <cellStyle name="Accent 2" xfId="5" xr:uid="{50971288-3045-44E6-9352-BD7F35B45ABF}"/>
-    <cellStyle name="Accent 3" xfId="6" xr:uid="{E38A3E28-BF8D-41D7-98DF-95988F63C39A}"/>
-    <cellStyle name="Bad" xfId="7" xr:uid="{BFEE290C-C7FE-4C1C-82A9-E82F948B9DFB}"/>
-    <cellStyle name="Error" xfId="8" xr:uid="{568FD757-61A3-4F8A-A79A-461571C74211}"/>
-    <cellStyle name="Footnote" xfId="9" xr:uid="{D53676C0-44C9-4394-B07C-7E198201973F}"/>
-    <cellStyle name="Good" xfId="10" xr:uid="{7CE39507-52C5-4C32-B31B-42C67259E0B6}"/>
-    <cellStyle name="Heading" xfId="11" xr:uid="{084CCF31-8FCC-4B28-B7EA-DEE0DE487F75}"/>
-    <cellStyle name="Heading 1" xfId="12" xr:uid="{0A73F7B7-2A44-4809-8942-11D059537D54}"/>
-    <cellStyle name="Heading 2" xfId="13" xr:uid="{A4FC2E93-6E6F-4C0A-9D54-AD3D0CA8C444}"/>
-    <cellStyle name="Hyperlink" xfId="14" xr:uid="{7B898066-70B2-4399-8846-BC0B9EA839C9}"/>
-    <cellStyle name="Neutral 2" xfId="2" xr:uid="{7164A33B-85D7-4F61-9A18-1659BEAD1FC7}"/>
+    <cellStyle name="Accent" xfId="3"/>
+    <cellStyle name="Accent 1" xfId="4"/>
+    <cellStyle name="Accent 2" xfId="5"/>
+    <cellStyle name="Accent 3" xfId="6"/>
+    <cellStyle name="Bad" xfId="7"/>
+    <cellStyle name="Error" xfId="8"/>
+    <cellStyle name="Footnote" xfId="9"/>
+    <cellStyle name="Good" xfId="10"/>
+    <cellStyle name="Heading" xfId="11"/>
+    <cellStyle name="Heading 1" xfId="12"/>
+    <cellStyle name="Heading 2" xfId="13"/>
+    <cellStyle name="Hyperlink" xfId="14"/>
+    <cellStyle name="Neutral 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{34EC1D34-2961-4089-907B-663154BAF7E4}"/>
-    <cellStyle name="Note" xfId="15" xr:uid="{99DBD972-7EAA-4451-AC9E-9DC8EF2D2BF0}"/>
-    <cellStyle name="Result" xfId="16" xr:uid="{B384B1D1-D79C-47CC-B47C-74240CB4C207}"/>
-    <cellStyle name="Status" xfId="17" xr:uid="{5F68B93E-6456-4EF1-A5B5-95281DF5D0F6}"/>
-    <cellStyle name="Text" xfId="18" xr:uid="{1CDAE28A-2777-45CF-969A-433B0C50B70B}"/>
-    <cellStyle name="Warning" xfId="19" xr:uid="{180589ED-8AC8-4F89-A6F6-A27C38B771DB}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Note" xfId="15"/>
+    <cellStyle name="Result" xfId="16"/>
+    <cellStyle name="Status" xfId="17"/>
+    <cellStyle name="Text" xfId="18"/>
+    <cellStyle name="Warning" xfId="19"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -633,21 +648,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52:F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
@@ -656,61 +671,61 @@
     <col min="6" max="6" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15.75">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="2:6" ht="30">
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="2:6" ht="15.75">
-      <c r="B6" s="4" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="2:6" ht="15.75">
-      <c r="B7" s="9" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -720,28 +735,28 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="2:6" ht="37.5" customHeight="1">
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="2:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="2:6" ht="15.75">
-      <c r="B9" s="6" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="2:6" ht="15.75">
-      <c r="B10" s="9" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -751,72 +766,72 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="2:6" ht="33" customHeight="1">
-      <c r="B11" s="9" t="s">
+    <row r="11" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="14" spans="2:6" ht="15.75">
-      <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="7" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="7" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" ht="30">
-      <c r="B17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" ht="15.75">
-      <c r="B18" s="4" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="2:6" ht="15.75">
-      <c r="B19" s="9" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -826,28 +841,28 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="2:6" ht="15.75">
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="2:6" ht="15.75">
-      <c r="B21" s="6" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="2:6" ht="15.75">
-      <c r="B22" s="9" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -857,72 +872,72 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="2:6" ht="15.75">
-      <c r="B23" s="9" t="s">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="26" spans="2:6" ht="15.75">
-      <c r="B26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="7" t="s">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="7" t="s">
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="2:6" ht="30">
-      <c r="B29" s="8" t="s">
+      <c r="C28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="2:6" ht="15.75">
-      <c r="B30" s="4" t="s">
+      <c r="C29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="2:6" ht="15.75">
-      <c r="B31" s="9" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -932,28 +947,28 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="2:6" ht="15.75">
-      <c r="B32" s="9" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="2:6" ht="15.75">
-      <c r="B33" s="6" t="s">
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="2:6" ht="15.75">
-      <c r="B34" s="9" t="s">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -963,37 +978,253 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="2:6" ht="15.75">
-      <c r="B35" s="9" t="s">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="B21:F21"/>
+  <mergeCells count="55">
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
@@ -1009,6 +1240,24 @@
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
